--- a/indecnacional_total.xlsx
+++ b/indecnacional_total.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT65"/>
+  <dimension ref="A1:AW66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,7 +372,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Alimentos y bebidas no alcohólicas</t>
+          <t>Alimentos y bebidas</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -392,12 +392,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Leche, productos lácteos y huevos</t>
+          <t>Leche productos lacteos y huevos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Aceites, grasas y manteca</t>
+          <t>Aceites grasas y manteca</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -407,37 +407,37 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Verduras, tubérculos y legumbres</t>
+          <t>Verduras tuberculos y legumbres</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Azúcar, dulces, chocolate, golosinas, etc,</t>
+          <t>Azucar dulces chocolate golosinas etc</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Bebidas no alcohólicas</t>
+          <t>Bebidas no alcoholicas</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Café, té, yerba y cacao</t>
+          <t>Cafe te yerba y cacao</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Aguas minerales, bebidas gaseosas y jugos</t>
+          <t>Aguas minerales bebidas gaseosas y jugos</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Bebidas alcohólicas y tabaco</t>
+          <t>Bebidas alcoholicas y tabaco</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Bebidas alcohólicas</t>
+          <t>Bebidas alcoholicas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Vivienda, agua, electricidad y otros combustibles</t>
+          <t>Vivienda agua electricidad y otros combustibles</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Mantenimiento y reparación de la vivienda</t>
+          <t>Mantenimiento y reparacion de la vivienda</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Electricidad, gas y otros combustibles</t>
+          <t>Electricidad gas y otros combustibles</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Bienes y servicios para la conservación del hogar</t>
+          <t>Bienes y servicios para la conservacion del hogar</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Productos medicinales, artefactos y equipos para la salud</t>
+          <t>Productos medicinales artefactos y equipos para la salud</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Adquisición de vehículos</t>
+          <t>Adquisicion de vehiculos</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -527,32 +527,32 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Combustibles y lubricantes para vehículos de uso del hogar</t>
+          <t>Combustibles y lubricantes para vehiculos de uso del hogar</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Transporte publico</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Comunicación</t>
+          <t>Comunicacion</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Servicios  de telefonía e internet</t>
+          <t>Servicios  de telefonia e internet</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Recreación y cultura</t>
+          <t>Recreacion y cultura</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Equipos audiovisuales, fotográficos y de procesamiento de la información</t>
+          <t>Equipos audiovisuales fotograficos y de procesamiento de la informacion</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Periódicos, diarios, revistas, libros y artículos de papelería</t>
+          <t>Periodicos diarios revistas libros y articulos de papeleria</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Educación</t>
+          <t>Educacion</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -593,6 +593,21 @@
       <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>periodos</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
         </is>
       </c>
     </row>
@@ -735,6 +750,17 @@
       <c r="AT2" s="2">
         <v>42736</v>
       </c>
+      <c r="AU2">
+        <v>2017</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -875,6 +901,17 @@
       <c r="AT3" s="2">
         <v>42767</v>
       </c>
+      <c r="AU3">
+        <v>2017</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -1015,6 +1052,17 @@
       <c r="AT4" s="2">
         <v>42795</v>
       </c>
+      <c r="AU4">
+        <v>2017</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1155,6 +1203,17 @@
       <c r="AT5" s="2">
         <v>42826</v>
       </c>
+      <c r="AU5">
+        <v>2017</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1295,6 +1354,17 @@
       <c r="AT6" s="2">
         <v>42856</v>
       </c>
+      <c r="AU6">
+        <v>2017</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1435,6 +1505,17 @@
       <c r="AT7" s="2">
         <v>42887</v>
       </c>
+      <c r="AU7">
+        <v>2017</v>
+      </c>
+      <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1575,6 +1656,17 @@
       <c r="AT8" s="2">
         <v>42917</v>
       </c>
+      <c r="AU8">
+        <v>2017</v>
+      </c>
+      <c r="AV8">
+        <v>7</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1715,6 +1807,17 @@
       <c r="AT9" s="2">
         <v>42948</v>
       </c>
+      <c r="AU9">
+        <v>2017</v>
+      </c>
+      <c r="AV9">
+        <v>8</v>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1855,6 +1958,17 @@
       <c r="AT10" s="2">
         <v>42979</v>
       </c>
+      <c r="AU10">
+        <v>2017</v>
+      </c>
+      <c r="AV10">
+        <v>9</v>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1995,6 +2109,17 @@
       <c r="AT11" s="2">
         <v>43009</v>
       </c>
+      <c r="AU11">
+        <v>2017</v>
+      </c>
+      <c r="AV11">
+        <v>10</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -2135,6 +2260,17 @@
       <c r="AT12" s="2">
         <v>43040</v>
       </c>
+      <c r="AU12">
+        <v>2017</v>
+      </c>
+      <c r="AV12">
+        <v>11</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2275,6 +2411,17 @@
       <c r="AT13" s="2">
         <v>43070</v>
       </c>
+      <c r="AU13">
+        <v>2017</v>
+      </c>
+      <c r="AV13">
+        <v>12</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2415,6 +2562,17 @@
       <c r="AT14" s="2">
         <v>43101</v>
       </c>
+      <c r="AU14">
+        <v>2018</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2555,6 +2713,17 @@
       <c r="AT15" s="2">
         <v>43132</v>
       </c>
+      <c r="AU15">
+        <v>2018</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2695,6 +2864,17 @@
       <c r="AT16" s="2">
         <v>43160</v>
       </c>
+      <c r="AU16">
+        <v>2018</v>
+      </c>
+      <c r="AV16">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2835,6 +3015,17 @@
       <c r="AT17" s="2">
         <v>43191</v>
       </c>
+      <c r="AU17">
+        <v>2018</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2975,6 +3166,17 @@
       <c r="AT18" s="2">
         <v>43221</v>
       </c>
+      <c r="AU18">
+        <v>2018</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -3115,6 +3317,17 @@
       <c r="AT19" s="2">
         <v>43252</v>
       </c>
+      <c r="AU19">
+        <v>2018</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3255,6 +3468,17 @@
       <c r="AT20" s="2">
         <v>43282</v>
       </c>
+      <c r="AU20">
+        <v>2018</v>
+      </c>
+      <c r="AV20">
+        <v>7</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -3395,6 +3619,17 @@
       <c r="AT21" s="2">
         <v>43313</v>
       </c>
+      <c r="AU21">
+        <v>2018</v>
+      </c>
+      <c r="AV21">
+        <v>8</v>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3535,6 +3770,17 @@
       <c r="AT22" s="2">
         <v>43344</v>
       </c>
+      <c r="AU22">
+        <v>2018</v>
+      </c>
+      <c r="AV22">
+        <v>9</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -3675,6 +3921,17 @@
       <c r="AT23" s="2">
         <v>43374</v>
       </c>
+      <c r="AU23">
+        <v>2018</v>
+      </c>
+      <c r="AV23">
+        <v>10</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -3815,6 +4072,17 @@
       <c r="AT24" s="2">
         <v>43405</v>
       </c>
+      <c r="AU24">
+        <v>2018</v>
+      </c>
+      <c r="AV24">
+        <v>11</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -3955,6 +4223,17 @@
       <c r="AT25" s="2">
         <v>43435</v>
       </c>
+      <c r="AU25">
+        <v>2018</v>
+      </c>
+      <c r="AV25">
+        <v>12</v>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -4095,6 +4374,17 @@
       <c r="AT26" s="2">
         <v>43466</v>
       </c>
+      <c r="AU26">
+        <v>2019</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -4235,6 +4525,17 @@
       <c r="AT27" s="2">
         <v>43497</v>
       </c>
+      <c r="AU27">
+        <v>2019</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -4375,6 +4676,17 @@
       <c r="AT28" s="2">
         <v>43525</v>
       </c>
+      <c r="AU28">
+        <v>2019</v>
+      </c>
+      <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -4515,6 +4827,17 @@
       <c r="AT29" s="2">
         <v>43556</v>
       </c>
+      <c r="AU29">
+        <v>2019</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -4655,6 +4978,17 @@
       <c r="AT30" s="2">
         <v>43586</v>
       </c>
+      <c r="AU30">
+        <v>2019</v>
+      </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -4795,6 +5129,17 @@
       <c r="AT31" s="2">
         <v>43617</v>
       </c>
+      <c r="AU31">
+        <v>2019</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -4935,6 +5280,17 @@
       <c r="AT32" s="2">
         <v>43647</v>
       </c>
+      <c r="AU32">
+        <v>2019</v>
+      </c>
+      <c r="AV32">
+        <v>7</v>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -5075,6 +5431,17 @@
       <c r="AT33" s="2">
         <v>43678</v>
       </c>
+      <c r="AU33">
+        <v>2019</v>
+      </c>
+      <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -5215,6 +5582,17 @@
       <c r="AT34" s="2">
         <v>43709</v>
       </c>
+      <c r="AU34">
+        <v>2019</v>
+      </c>
+      <c r="AV34">
+        <v>9</v>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -5355,6 +5733,17 @@
       <c r="AT35" s="2">
         <v>43739</v>
       </c>
+      <c r="AU35">
+        <v>2019</v>
+      </c>
+      <c r="AV35">
+        <v>10</v>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -5495,6 +5884,17 @@
       <c r="AT36" s="2">
         <v>43770</v>
       </c>
+      <c r="AU36">
+        <v>2019</v>
+      </c>
+      <c r="AV36">
+        <v>11</v>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -5635,6 +6035,17 @@
       <c r="AT37" s="2">
         <v>43800</v>
       </c>
+      <c r="AU37">
+        <v>2019</v>
+      </c>
+      <c r="AV37">
+        <v>12</v>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -5775,6 +6186,17 @@
       <c r="AT38" s="2">
         <v>43831</v>
       </c>
+      <c r="AU38">
+        <v>2020</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -5915,6 +6337,17 @@
       <c r="AT39" s="2">
         <v>43862</v>
       </c>
+      <c r="AU39">
+        <v>2020</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -6055,6 +6488,17 @@
       <c r="AT40" s="2">
         <v>43891</v>
       </c>
+      <c r="AU40">
+        <v>2020</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -6186,6 +6630,17 @@
       <c r="AT41" s="2">
         <v>43922</v>
       </c>
+      <c r="AU41">
+        <v>2020</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -6323,6 +6778,17 @@
       <c r="AT42" s="2">
         <v>43952</v>
       </c>
+      <c r="AU42">
+        <v>2020</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -6460,6 +6926,17 @@
       <c r="AT43" s="2">
         <v>43983</v>
       </c>
+      <c r="AU43">
+        <v>2020</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -6597,6 +7074,17 @@
       <c r="AT44" s="2">
         <v>44013</v>
       </c>
+      <c r="AU44">
+        <v>2020</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -6737,6 +7225,17 @@
       <c r="AT45" s="2">
         <v>44044</v>
       </c>
+      <c r="AU45">
+        <v>2020</v>
+      </c>
+      <c r="AV45">
+        <v>8</v>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -6877,6 +7376,17 @@
       <c r="AT46" s="2">
         <v>44075</v>
       </c>
+      <c r="AU46">
+        <v>2020</v>
+      </c>
+      <c r="AV46">
+        <v>9</v>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -7017,6 +7527,17 @@
       <c r="AT47" s="2">
         <v>44105</v>
       </c>
+      <c r="AU47">
+        <v>2020</v>
+      </c>
+      <c r="AV47">
+        <v>10</v>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -7157,6 +7678,17 @@
       <c r="AT48" s="2">
         <v>44136</v>
       </c>
+      <c r="AU48">
+        <v>2020</v>
+      </c>
+      <c r="AV48">
+        <v>11</v>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -7297,6 +7829,17 @@
       <c r="AT49" s="2">
         <v>44166</v>
       </c>
+      <c r="AU49">
+        <v>2020</v>
+      </c>
+      <c r="AV49">
+        <v>12</v>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -7437,6 +7980,17 @@
       <c r="AT50" s="2">
         <v>44197</v>
       </c>
+      <c r="AU50">
+        <v>2021</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -7577,6 +8131,17 @@
       <c r="AT51" s="2">
         <v>44228</v>
       </c>
+      <c r="AU51">
+        <v>2021</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -7717,6 +8282,17 @@
       <c r="AT52" s="2">
         <v>44256</v>
       </c>
+      <c r="AU52">
+        <v>2021</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -7857,6 +8433,17 @@
       <c r="AT53" s="2">
         <v>44287</v>
       </c>
+      <c r="AU53">
+        <v>2021</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -7997,6 +8584,17 @@
       <c r="AT54" s="2">
         <v>44317</v>
       </c>
+      <c r="AU54">
+        <v>2021</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -8137,6 +8735,17 @@
       <c r="AT55" s="2">
         <v>44348</v>
       </c>
+      <c r="AU55">
+        <v>2021</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -8277,6 +8886,17 @@
       <c r="AT56" s="2">
         <v>44378</v>
       </c>
+      <c r="AU56">
+        <v>2021</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -8417,6 +9037,17 @@
       <c r="AT57" s="2">
         <v>44409</v>
       </c>
+      <c r="AU57">
+        <v>2021</v>
+      </c>
+      <c r="AV57">
+        <v>8</v>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -8557,6 +9188,17 @@
       <c r="AT58" s="2">
         <v>44440</v>
       </c>
+      <c r="AU58">
+        <v>2021</v>
+      </c>
+      <c r="AV58">
+        <v>9</v>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -8697,6 +9339,17 @@
       <c r="AT59" s="2">
         <v>44470</v>
       </c>
+      <c r="AU59">
+        <v>2021</v>
+      </c>
+      <c r="AV59">
+        <v>10</v>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -8837,6 +9490,17 @@
       <c r="AT60" s="2">
         <v>44501</v>
       </c>
+      <c r="AU60">
+        <v>2021</v>
+      </c>
+      <c r="AV60">
+        <v>11</v>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -8977,6 +9641,17 @@
       <c r="AT61" s="2">
         <v>44531</v>
       </c>
+      <c r="AU61">
+        <v>2021</v>
+      </c>
+      <c r="AV61">
+        <v>12</v>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -9117,6 +9792,17 @@
       <c r="AT62" s="2">
         <v>44562</v>
       </c>
+      <c r="AU62">
+        <v>2022</v>
+      </c>
+      <c r="AV62">
+        <v>1</v>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -9257,6 +9943,17 @@
       <c r="AT63" s="2">
         <v>44593</v>
       </c>
+      <c r="AU63">
+        <v>2022</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -9397,6 +10094,17 @@
       <c r="AT64" s="2">
         <v>44621</v>
       </c>
+      <c r="AU64">
+        <v>2022</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -9536,6 +10244,168 @@
       </c>
       <c r="AT65" s="2">
         <v>44652</v>
+      </c>
+      <c r="AU65">
+        <v>2022</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>4.8</v>
+      </c>
+      <c r="B66">
+        <v>4.4</v>
+      </c>
+      <c r="C66">
+        <v>4.3</v>
+      </c>
+      <c r="D66">
+        <v>4.2</v>
+      </c>
+      <c r="E66">
+        <v>6.5</v>
+      </c>
+      <c r="F66">
+        <v>4.3</v>
+      </c>
+      <c r="G66">
+        <v>7.7</v>
+      </c>
+      <c r="H66">
+        <v>2.2</v>
+      </c>
+      <c r="I66">
+        <v>-2.8</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>5.3</v>
+      </c>
+      <c r="L66">
+        <v>6.8</v>
+      </c>
+      <c r="M66">
+        <v>4.7</v>
+      </c>
+      <c r="N66">
+        <v>5.5</v>
+      </c>
+      <c r="O66">
+        <v>6.2</v>
+      </c>
+      <c r="P66">
+        <v>4.9</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
+        <v>5.1</v>
+      </c>
+      <c r="S66">
+        <v>4.6</v>
+      </c>
+      <c r="T66">
+        <v>2.8</v>
+      </c>
+      <c r="U66">
+        <v>4.5</v>
+      </c>
+      <c r="V66">
+        <v>7.4</v>
+      </c>
+      <c r="W66">
+        <v>3</v>
+      </c>
+      <c r="X66">
+        <v>0.2</v>
+      </c>
+      <c r="Y66">
+        <v>5.3</v>
+      </c>
+      <c r="Z66">
+        <v>6.4</v>
+      </c>
+      <c r="AA66">
+        <v>6.1</v>
+      </c>
+      <c r="AB66">
+        <v>6.1</v>
+      </c>
+      <c r="AC66">
+        <v>8</v>
+      </c>
+      <c r="AD66">
+        <v>5.4</v>
+      </c>
+      <c r="AE66">
+        <v>3</v>
+      </c>
+      <c r="AF66">
+        <v>9.1</v>
+      </c>
+      <c r="AG66">
+        <v>10.4</v>
+      </c>
+      <c r="AH66">
+        <v>2.5</v>
+      </c>
+      <c r="AI66">
+        <v>3.1</v>
+      </c>
+      <c r="AJ66">
+        <v>3</v>
+      </c>
+      <c r="AK66">
+        <v>5.2</v>
+      </c>
+      <c r="AL66">
+        <v>3.3</v>
+      </c>
+      <c r="AM66">
+        <v>4.8</v>
+      </c>
+      <c r="AN66">
+        <v>5.3</v>
+      </c>
+      <c r="AO66">
+        <v>3.4</v>
+      </c>
+      <c r="AP66">
+        <v>5.2</v>
+      </c>
+      <c r="AQ66">
+        <v>5.2</v>
+      </c>
+      <c r="AR66">
+        <v>4.4</v>
+      </c>
+      <c r="AS66">
+        <v>4.7</v>
+      </c>
+      <c r="AT66" s="2">
+        <v>44682</v>
+      </c>
+      <c r="AU66">
+        <v>2022</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
       </c>
     </row>
   </sheetData>
